--- a/laravel_user_stories_v20191120.xlsx
+++ b/laravel_user_stories_v20191120.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87B7373-B7E6-5D47-8CCF-44941B6E21BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC074141-2C71-4B4E-A6E5-F11BB93E0CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
@@ -3094,6 +3094,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3296,15 +3305,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3312,6 +3312,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3326,14 +3334,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/laravel_user_stories_v20191120.xlsx
+++ b/laravel_user_stories_v20191120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC074141-2C71-4B4E-A6E5-F11BB93E0CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED480C0-A363-884B-92DF-A3B4F59F1A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>128</v>
@@ -3103,6 +3103,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3305,12 +3311,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
   <ds:schemaRefs>
@@ -3320,6 +3320,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3336,21 +3353,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/laravel_user_stories_v20191120.xlsx
+++ b/laravel_user_stories_v20191120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED480C0-A363-884B-92DF-A3B4F59F1A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2839164-D73F-C245-A1AC-E86F7354E462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>32</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>33</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>63</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>80</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>81</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>82</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>85</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>86</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>100</v>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>170</v>
@@ -3094,21 +3094,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3311,32 +3296,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3353,4 +3328,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/laravel_user_stories_v20191120.xlsx
+++ b/laravel_user_stories_v20191120.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2839164-D73F-C245-A1AC-E86F7354E462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A217375C-2F26-5146-9456-E61F8B3604C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>80</v>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>180</v>
@@ -3094,6 +3094,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3296,22 +3311,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3328,29 +3353,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>